--- a/Biofuels_Taiwan.xlsx
+++ b/Biofuels_Taiwan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Karen's Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{136E19BC-20F0-480C-B869-A5543165F183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3ECCBC6-D00F-489C-89D3-ABE53F3EE60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E662843D-4ACF-4889-ACD4-CEA65326172E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="96">
   <si>
     <t>in</t>
   </si>
@@ -282,6 +282,48 @@
   </si>
   <si>
     <t>1434.5</t>
+  </si>
+  <si>
+    <t>API field</t>
+  </si>
+  <si>
+    <t>flow name</t>
+  </si>
+  <si>
+    <t>UUID dataset</t>
+  </si>
+  <si>
+    <t>flow property</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>is reference flow?</t>
+  </si>
+  <si>
+    <t>in/out</t>
+  </si>
+  <si>
+    <t>sugarcane cultivation and transport to refinery</t>
+  </si>
+  <si>
+    <t>bioethanol production, from sugarcane</t>
+  </si>
+  <si>
+    <t>soybean cultivation and transport to refinery</t>
+  </si>
+  <si>
+    <t>biodiesel production, from soybean</t>
+  </si>
+  <si>
+    <t>rape seed cultivation and transport to refinery</t>
+  </si>
+  <si>
+    <t>biodiesel production, from rape seed</t>
   </si>
 </sst>
 </file>
@@ -351,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -360,6 +402,9 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -676,14 +721,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7429CB-D6BD-4B4F-B17C-CF93AE31FF97}">
-  <dimension ref="B2:P23"/>
+  <dimension ref="B1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="2:16" ht="48" x14ac:dyDescent="0.3">
+      <c r="C1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="2" spans="2:16" ht="48" x14ac:dyDescent="0.3">
       <c r="B2" s="1">
         <v>0</v>
